--- a/df_list_20250826.xlsx
+++ b/df_list_20250826.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,82 +472,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A015</t>
+          <t>A014</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>강원도로관리사업소</t>
+          <t>전북도로관리사업소</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://state.gwd.go.kr/road/announce?pageIndex=1&amp;recordCountPerPage=90</t>
+          <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025 강원특별자치도 주민자치박람회 행사운영 용역 제안서 정성적 평가 결과 공고</t>
+          <t>2026년도 주민참여예산제 도민참여형 주민제안 공모</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A017</t>
+          <t>A015</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>서울특별시건설신기술공법선정위원회</t>
+          <t>강원도로관리사업소</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://news.seoul.go.kr/citybuild/archives/516614#list/1</t>
+          <t>https://state.gwd.go.kr/road/announce?pageIndex=1&amp;recordCountPerPage=90</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>탄천교 낙하물방지망 설치공사 특정공법 선정 최종 평가결과 안내 공고</t>
+          <t>강원특별자치도농업기술원 구내식당 관리위탁업체 선정 제안서평가위원회 예비평가위원 공개모집 공고결의</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A017</t>
+          <t>A015</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>서울특별시건설신기술공법선정위원회</t>
+          <t>강원도로관리사업소</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://news.seoul.go.kr/citybuild/archives/516614#list/1</t>
+          <t>https://state.gwd.go.kr/road/announce?pageIndex=1&amp;recordCountPerPage=90</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>탄천2교 낙하물방지망 설치공사 특정공법 선정 최종 평가결과 안내 공고</t>
+          <t>2025 강원특별자치도 주민자치박람회 행사운영 용역 제안서 정성적 평가 결과 공고</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -555,29 +555,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A018</t>
+          <t>A017</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>부산광역시고시공고</t>
+          <t>서울특별시건설신기술공법선정위원회</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+          <t>https://news.seoul.go.kr/citybuild/archives/516614#list/1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>제안서 평가위원(후보자) 모집 공고(이기대예술공원 아트파빌리온 설치 운영 대행 용역)</t>
+          <t>탄천교 낙하물방지망 설치공사 특정공법 선정 최종 평가결과 안내 공고</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -585,29 +585,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A018</t>
+          <t>A017</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>부산광역시고시공고</t>
+          <t>서울특별시건설신기술공법선정위원회</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+          <t>https://news.seoul.go.kr/citybuild/archives/516614#list/1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(가칭)부산대첩기념관 건립 타당성 조사 및 기본계획 수립 연구용역 제안서 평가위원(후보자) 모집 공고</t>
+          <t>탄천2교 낙하물방지망 설치공사 특정공법 선정 최종 평가결과 안내 공고</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
@@ -632,102 +632,102 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+          <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>충렬사 재정비 종합 연구용역 추진을 위한 제안서평가위원(후보자) 모집 공고</t>
+          <t>제안서 평가결과 공개(도시안전 통합정보관리시스템 용역)</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A019</t>
+          <t>A018</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대구광역시고시공고</t>
+          <t>부산광역시고시공고</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+          <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>대구광역시 갈등관리심의위원회 위원 명단 공개</t>
+          <t>부산 항노화바이오산업육성 종합계획 수립 연구용역 제안서 평가위원 후보자 모집공고</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A019</t>
+          <t>A018</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>대구광역시고시공고</t>
+          <t>부산광역시고시공고</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+          <t>https://www.busan.go.kr/nbgosi?curPage=3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>대구광역시 환경자원시설 주민지원기금 심의위원 공개모집 공고</t>
+          <t>농업·농촌 및 식품산업 정책심의회 위촉직 위원 공개모집 공고</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A021</t>
+          <t>A018</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>광주광역시고시공고</t>
+          <t>부산광역시고시공고</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://sido.gwangju.go.kr/citynet/jsp/sap/SAPGosiBizProcess.do?command=searchList&amp;flag=gosiGL&amp;svp=Y</t>
+          <t>https://www.busan.go.kr/nbgosi?curPage=3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>광주광역시 교통영향평가심의위원회 위원 공개모집 공고</t>
+          <t>제안서 평가위원(후보자) 모집 공고(이기대예술공원 아트파빌리온 설치 운영 대행 용역)</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -735,29 +735,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A021</t>
+          <t>A019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>광주광역시고시공고</t>
+          <t>대구광역시고시공고</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://sido.gwangju.go.kr/citynet/jsp/sap/SAPGosiBizProcess.do?command=searchList&amp;flag=gosiGL&amp;svp=Y</t>
+          <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>광주광역시 제안심사위원회 위원 공개모집 공고</t>
+          <t>대구광역시 갈등관리심의위원회 위원 명단 공개</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -765,29 +765,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A021</t>
+          <t>A019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>광주광역시고시공고</t>
+          <t>대구광역시고시공고</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://sido.gwangju.go.kr/citynet/jsp/sap/SAPGosiBizProcess.do?command=searchList&amp;flag=gosiGL&amp;svp=Y</t>
+          <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>외국인 유학생의 날 행사 대행 용역 제안서 평가위원(후보자) 모집공고</t>
+          <t>대구광역시 환경자원시설 주민지원기금 심의위원 공개모집 공고</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -795,29 +795,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A026</t>
+          <t>A021</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>강원고시공고</t>
+          <t>광주광역시고시공고</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://state.gwd.go.kr/portal/bulletin/notification?pageIndex=1&amp;recordCountPerPage=90</t>
+          <t>https://sido.gwangju.go.kr/citynet/jsp/sap/SAPGosiBizProcess.do?command=searchList&amp;flag=gosiGL&amp;svp=Y</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025 강원특별자치도 주민자치박람회 행사운영 용역 제안서 정성적 평가 결과 공고</t>
+          <t>광주광역시 교통영향평가심의위원회 위원 공개모집 공고</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -825,119 +825,119 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A027</t>
+          <t>A022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>충북고시공고</t>
+          <t>대전광역시고시공고</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=1</t>
+          <t>https://www.daejeon.go.kr/drh/drhGosiList.do?gosigbn=A&amp;menuSeq=1908</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025 라인루르 하계세계대학경기대회 디브리핑 충청개최 행사대행 용역 제안서 평가위원(후보자) 모집 공고</t>
+          <t>「제8차 대전권 관광개발계획 수립 용역」제안서 평가위원(후보자) 모집 공고</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A030</t>
+          <t>A025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>전남고시공고</t>
+          <t>경기고시공고</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.jeonnam.go.kr/J0203/boardList.do?menuId=jeonnam0203000000&amp;pageIndex=1</t>
+          <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전라남도 교통영향평가심의위원회 위원 공개모집 공고2025-08-25</t>
+          <t>소방 자격증 사이버교육 위탁 용역 사업 제안서 평가위원(후보자) 모집 공고</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A041</t>
+          <t>A026</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경기도_용인시처인구</t>
+          <t>강원고시공고</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
+          <t>https://state.gwd.go.kr/portal/bulletin/notification?pageIndex=1&amp;recordCountPerPage=90</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>용인시 옥외광고발전기금 운용심의위원회 위원 모집 공고</t>
+          <t>강원특별자치도농업기술원 구내식당 관리위탁업체 선정 제안서평가위원회 예비평가위원 공개모집 공고결의</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A044</t>
+          <t>A026</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>경기도_광주시</t>
+          <t>강원고시공고</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.gjcity.go.kr/portal/saeol/gosi/list.do?mId=0202010000&amp;token=1688448678130</t>
+          <t>https://state.gwd.go.kr/portal/bulletin/notification?pageIndex=1&amp;recordCountPerPage=90</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>하수도기술심의위원회 평가위원별 세부평가점수 공개</t>
+          <t>2025 강원특별자치도 주민자치박람회 행사운영 용역 제안서 정성적 평가 결과 공고</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
@@ -945,29 +945,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A044</t>
+          <t>A027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경기도_광주시</t>
+          <t>충북고시공고</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.gjcity.go.kr/portal/saeol/gosi/list.do?mId=0202010000&amp;token=1688448678130</t>
+          <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>하수도기술심의위원회 평가위원별 세부평가점수 공개(오포 공공하수처리시설 증설사업)</t>
+          <t>2025 라인루르 하계세계대학경기대회 디브리핑 충청개최 행사대행 용역 제안서 평가위원(후보자) 모집 공고</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
@@ -975,119 +975,119 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A051</t>
+          <t>A029</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>경기도_성남시</t>
+          <t>전북고시공고</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+          <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026년 성남시(야탑·위례)평생학습관 정규과정 프로그램 제안 강사 모집...</t>
+          <t>2026년도 주민참여예산제 도민참여형 주민제안 공모</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A063</t>
+          <t>A030</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경기도_오산시</t>
+          <t>전남고시공고</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.osan.go.kr/portal/saeol/gosi/list.do?mId=0302010000</t>
+          <t>https://www.jeonnam.go.kr/J0203/boardList.do?menuId=jeonnam0203000000&amp;pageIndex=1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025년 오산시 통장 연수 운영 용역 제안서평가위원회 (예비) 평가위원 모집 공고</t>
+          <t>전라남도 교통영향평가심의위원회 위원 공개모집 공고2025-08-25</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A071</t>
+          <t>A041</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경기도_화성시</t>
+          <t>경기도_용인시처인구</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://eminwon.hscity.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;not_ancmt_mgt_no=&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=80&amp;not_ancmt_se_code=01%2C04&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;cgg_code=&amp;not_ancmt_reg_no=&amp;cha_dep_code_nm=&amp;yyyy=2024&amp;Key=B_Subject&amp;temp=</t>
+          <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025년 화성시 인공지능(AI) 정책제안 공모전 공고</t>
+          <t>용인시 교통유발부담금 경감심의위원회 위원 모집 공고</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A074</t>
+          <t>A041</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>경기도_연천군</t>
+          <t>경기도_용인시처인구</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.yeoncheon.go.kr/www/selectGosiList.do?key=3393&amp;not_ancmt_se_code=01&amp;pageUnit=50</t>
+          <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>기술제안서 평가위원 공개(연천군 지방상수도 현대화사업 기본 및 실시설계용역)</t>
+          <t>용인시 옥외광고발전기금 운용심의위원회 위원 모집 공고</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
@@ -1095,59 +1095,59 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A078</t>
+          <t>A042</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>강원도_속초시</t>
+          <t>경기도_과천시</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.sokcho.go.kr/sc/portal/sokchonews/notification</t>
+          <t>https://www.gccity.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>속초시 환경계획 수립(2026-2040)용역 제안서 평가위원(후보자) 모집공고</t>
+          <t>과천시정보과학도서관 어린이자료실 디자인가구 제작 및 설치 제안서 평가위원 모집 공고</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A080</t>
+          <t>A044</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>강원도_춘천시</t>
+          <t>경기도_광주시</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=2</t>
+          <t>https://www.gjcity.go.kr/portal/saeol/gosi/list.do?mId=0202010000&amp;token=1688448678130</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>춘천시 소프트웨어사업 과업심의위원회 위원 인재 풀(Pool) 모집 재공고</t>
+          <t>하수도기술심의위원회 평가위원별 세부평가점수 공개</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
@@ -1155,149 +1155,149 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A083</t>
+          <t>A055</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>강원도_양구군</t>
+          <t>경기도_시흥시</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.yanggu.go.kr/user_sub?gfnc=www&amp;mu_idx=226&amp;pgsize=100</t>
+          <t>https://www.siheung.go.kr/main/saeol/gosi/list.do?mId=0401040100</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>일자리 원정센터 조성사업 설계제안공모 질의답변 공고</t>
+          <t>「시흥아트센터 프리뷰 페스타 무대설치・운영 용역」제안서 평가위원회 평가 결과 공개</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A090</t>
+          <t>A063</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>강원도_홍천군</t>
+          <t>경기도_오산시</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=2</t>
+          <t>https://www.osan.go.kr/portal/saeol/gosi/list.do?mId=0302010000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>홍천군 노인복지기금 운용심의위원회 위원 모집 공고</t>
+          <t>2025년 오산시 통장 연수 운영 용역 제안서평가위원회 (예비) 평가위원 모집 공고</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A094</t>
+          <t>A067</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>충청도_청주시</t>
+          <t>경기도_파주시</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=1</t>
+          <t>https://dong.paju.go.kr/dong/user/board/BD_board.list.do?bbsCd=1022&amp;q_ctgCd=4063</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>소각시설 증기터빈발전기 구매설치 제안서 제출안내 공고(긴급)(협상에 의한 계약)</t>
+          <t>「2025년 열린관광지 조성 제3땅굴 셔틀 승강기 설계 및 제작 설치」 제안서 평가위원(후보자) 모집 공고N</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A094</t>
+          <t>A067</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>충청도_청주시</t>
+          <t>경기도_파주시</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=1</t>
+          <t>https://dong.paju.go.kr/dong/user/board/BD_board.list.do?bbsCd=1022&amp;q_ctgCd=4063</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>소각시설 증기터빈발전기 구매설치 제안서 제출안내 취소공고</t>
+          <t>파주 북부지역 관광활성화 기본계획 수립 용역 제안서 평가위원(후보자) 공개모집 공고N</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A094</t>
+          <t>A071</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>충청도_청주시</t>
+          <t>경기도_화성시</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+          <t>https://eminwon.hscity.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;not_ancmt_mgt_no=&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=80&amp;not_ancmt_se_code=01%2C04&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;cgg_code=&amp;not_ancmt_reg_no=&amp;cha_dep_code_nm=&amp;yyyy=2024&amp;Key=B_Subject&amp;temp=</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>청주시 목재체험센터 장비 및 유아목재체험놀이터 디자인 설계제작설치 제안서 제출안내 공고(긴급)(협상에 의한 계약)</t>
+          <t>2025년 화성시 인공지능(AI) 정책제안 공모전 공고</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
@@ -1305,59 +1305,59 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A094</t>
+          <t>A074</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>충청도_청주시</t>
+          <t>경기도_연천군</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=4</t>
+          <t>https://www.yeoncheon.go.kr/www/selectGosiList.do?key=3393&amp;not_ancmt_se_code=01&amp;pageUnit=50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>소각시설 증기터빈발전기 구매설치 제안서 평가위원(후보자) 모집 공고</t>
+          <t>2025년 제2회 연천군 공동주택 보조금 지원심사위원회 심의 결과 공개</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A094</t>
+          <t>A074</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>충청도_청주시</t>
+          <t>경기도_연천군</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=4</t>
+          <t>https://www.yeoncheon.go.kr/www/selectGosiList.do?key=3393&amp;not_ancmt_se_code=01&amp;pageUnit=50</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>목재체험센터 장비 및 유아목재체험놀이터 디자인 설계·제작·설치 제안서 평가위원(후보자) 공개모집 공고</t>
+          <t>기술제안서 평가위원 공개(연천군 지방상수도 현대화사업 기본 및 실시설계용역)</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
@@ -1365,119 +1365,119 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A098</t>
+          <t>A075</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>충청도_청주시_상당구</t>
+          <t>강원도_강릉시</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+          <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>소각시설 증기터빈발전기 구매설치 제안서 평가위원(후보자) 모집 공고</t>
+          <t>2025 제4회 강릉 누들 축제 행사 대행 용역 제안서 평가위원(후보자)...</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A098</t>
+          <t>A075</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>충청도_청주시_상당구</t>
+          <t>강원도_강릉시</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+          <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>목재체험센터 장비 및 유아목재체험놀이터 디자인 설계·제작·설치 제안서 평...</t>
+          <t>제안서 기술능력(정성) 평가결과 공고(강릉시 통합성과관리 운영시스템 구축...</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A103</t>
+          <t>A078</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>충청도_옥천군</t>
+          <t>강원도_속초시</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
+          <t>https://www.sokcho.go.kr/sc/portal/sokchonews/notification</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>옥천 복숭아 병해충 및 농업기상 종합정보 시스템 구축 제안서 평가 결과 공개새글</t>
+          <t>속초시 청호동 1지역(아바이마을) 도시재생활성화계획 수립 용역 제안서 평가위원(후보자) 모집 공고</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A103</t>
+          <t>A078</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>충청도_옥천군</t>
+          <t>강원도_속초시</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
+          <t>https://www.sokcho.go.kr/sc/portal/sokchonews/notification</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>「옥천박물관 전시설계 및 전시물 제작·설치」 제안서 평가위원(후보자) 모집 공고새글</t>
+          <t>속초시 환경계획 수립(2026-2040)용역 제안서 평가위원(후보자) 모집공고</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A110</t>
+          <t>A083</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>충청도_당진시</t>
+          <t>강원도_양구군</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://eminwon.dangjin.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06&amp;list_gubun=A</t>
+          <t>https://www.yanggu.go.kr/user_sub?gfnc=www&amp;mu_idx=226&amp;pgsize=100</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>「당진시 하수처리수 재이용수 공급사업」 공법선정 기술제안서 제출안내 공고</t>
+          <t>일자리 원정센터 조성사업 설계제안공모 질의답변 공고</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
@@ -1515,29 +1515,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A115</t>
+          <t>A090</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>충청도_금산군</t>
+          <t>강원도_홍천군</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.geumsan.go.kr/kr/html/sub03/030302.html?GotoPage=1</t>
+          <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[일반공고]「금산군 국도37호 재해복구공사」 신기술‧특허공법 선정위원회 명단  및 평가 결과 공고</t>
+          <t>홍천군 노인복지기금 운용심의위원회 위원 모집 공고</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
@@ -1545,29 +1545,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A122</t>
+          <t>A093</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>전라도_군산시</t>
+          <t>충청도_제천시</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+          <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026년 주민참여예산제도 활성화를 위한 지역밀착형 주민제안 공모</t>
+          <t>2025년 의림지 역사박물관 기획전시 연출 용역 제안서 평가결과 공고새글</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
@@ -1575,29 +1575,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A125</t>
+          <t>A098</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>전라도_익산시</t>
+          <t>충청도_청주시_상당구</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+          <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>「익산 백제 상징조형물 제작·설치용역」제안서 평가위원(후보자) 공개모집 ...</t>
+          <t>소각시설 증기터빈발전기 구매설치 제안서 평가위원(후보자) 모집 공고</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
@@ -1605,59 +1605,59 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A126</t>
+          <t>A098</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>전라도_전주시</t>
+          <t>충청도_청주시_상당구</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+          <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026년 전북특별자치도 지역밀착형 주민제안 공모계획에 따른 공모 공고</t>
+          <t>목재체험센터 장비 및 유아목재체험놀이터 디자인 설계·제작·설치 제안서 평...</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A126</t>
+          <t>A103</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>전라도_전주시</t>
+          <t>충청도_옥천군</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+          <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>「2025 전주막걸리축제 행사 대행 용역」제안서 평가결과 공고</t>
+          <t>옥천 복숭아 병해충 및 농업기상 종합정보 시스템 구축 제안서 평가 결과 공개새글</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
@@ -1665,29 +1665,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A126</t>
+          <t>A103</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>전라도_전주시</t>
+          <t>충청도_옥천군</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+          <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>제19회 전주평생학습한마당 행사장 구성 및 연출 용역 제안서 평가위원(예...</t>
+          <t>「옥천박물관 전시설계 및 전시물 제작·설치」 제안서 평가위원(후보자) 모집 공고새글</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
@@ -1695,29 +1695,29 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A128</t>
+          <t>A111</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>전라도_고창군</t>
+          <t>충청도_보령시</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.gochang.go.kr/board/list.gochang?boardId=BBS_0000180&amp;menuCd=DOM_000000102003007000&amp;contentsSid=2682&amp;startPage=1</t>
+          <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[41840]주민참여예산제도 지역밀착형 주민제안사업(도비) 공모첨부파일 있음</t>
+          <t>보령시 의료급여 심의위원회 위원 공개 모집 공고</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
@@ -1725,89 +1725,89 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A128</t>
+          <t>A113</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>전라도_고창군</t>
+          <t>충청도_아산시</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.gochang.go.kr/board/list.gochang?boardId=BBS_0000180&amp;menuCd=DOM_000000102003007000&amp;contentsSid=2682&amp;startPage=1</t>
+          <t>https://eminwon.asan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,06,07&amp;ofr_pageSize=10&amp;epcCheck=Y</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[41838]고창군 목재문화체험장 조성사업 기본 및 실시설계용역 건축설계공모 제안서 제출 안내첨부파일 있음</t>
+          <t>2026년 주민참여예산 편성을 위한 제안사업 선정결과</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A132</t>
+          <t>A114</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>전라도_완주군</t>
+          <t>충청도_천안시</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://eminwon.wanju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;list_gubun=A</t>
+          <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>신기술 특허 사용협약 알림 공고(대아, 수만, 평촌, 원평촌2단계 마을하...</t>
+          <t>제29회 천안시 건축위원회 심의 주요결과 공고</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A133</t>
+          <t>A115</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>전라도_임실군</t>
+          <t>충청도_금산군</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://eminwon.imsil.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
+          <t>https://www.geumsan.go.kr/kr/html/sub03/030302.html?GotoPage=1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026년 주민참여예산제도 「지역밀착형 주민제안사업」공모</t>
+          <t>[일반공고]「금산군 국도37호 재해복구공사」 신기술‧특허공법 선정위원회 명단  및 평가 결과 공고</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
@@ -1815,119 +1815,119 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A141</t>
+          <t>A119</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>전라도_강진군</t>
+          <t>충청도_청양군</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+          <t>https://eminwon.cheongyang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;list_gubun=A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>주작산자연휴양림 도로열선 제작·설치 공법선정위원회 평가위원(후보..새로운글</t>
+          <t>청양읍 농촌중심지 활성화사업 지역역량강화(2)용역 제안서 정성 평가 결과...</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A141</t>
+          <t>A122</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>전라도_강진군</t>
+          <t>전라도_군산시</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+          <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>주작산자연휴양림 도로열선 제작·설치 특정공법 선정 기술제안서 제..새로운글</t>
+          <t>2026년도 나운2동 시민참여예산 제안사업 공모 추가 공고</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A146</t>
+          <t>A122</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>전라도_무안군</t>
+          <t>전라도_군산시</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.muan.go.kr/www/openmuan/new/announcement?page=1</t>
+          <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>수리시설 개보수사업『복룡·병산저수지』신기술·특허공법(그라우팅) 선정을 위...</t>
+          <t>2026년 주민참여예산제도 활성화를 위한 지역밀착형 주민제안 공모</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A159</t>
+          <t>A123</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>경상도_경주시</t>
+          <t>전라도_김제시</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+          <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>경주시 안전안심 농촌마을 서비스 보급・확산 사업 제안서 평가결과 공고</t>
+          <t>지역밀착형 주민제안사업 공모</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
@@ -1935,89 +1935,89 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A159</t>
+          <t>A125</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경상도_경주시</t>
+          <t>전라도_익산시</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+          <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>경주 봉황대 전광판 3D 영상 제작 용역 제안서 평가위원(후보자) 모집 공고</t>
+          <t>「익산 백제 상징조형물 제작·설치용역」제안서 평가위원(후보자) 공개모집 ...</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A167-1</t>
+          <t>A125</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>경상도_포항시</t>
+          <t>전라도_익산시</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.pohang.go.kr/portal/saeol/gosi/list.do?mid=0202010000&amp;token=1702008153483</t>
+          <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>「2025 포항수제맥주페스티벌 행사대행 용역」제안서 평가위원회 평가위원(후보자) 모집 공고</t>
+          <t>주민참여예산제도 지역밀착형 주민제안 공모</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A173</t>
+          <t>A125</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>경상도_영양군</t>
+          <t>전라도_익산시</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.yyg.go.kr/www/organization/yyg_news/notification?page=1</t>
+          <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>「영양군 우리동네살리기 도시재생사업 실행계획 수립 용역」제안서..새로운글</t>
+          <t>「익산 백제 상징조형물 제작·설치용역」제안서 평가위원(후보자) 공개모집 ...</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
@@ -2025,59 +2025,59 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A174-1</t>
+          <t>A126</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>경상도_예천군</t>
+          <t>전라도_전주시</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.ycg.kr/open.content/ko/administrative/news/announcement/?p=1</t>
+          <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>예천 디지털혁신농업타운 소규모공공하수처리시설 공법선정 하수도기술심의위원회...</t>
+          <t>2026년 전북특별자치도 지역밀착형 주민제안 공모계획에 따른 공모 공고</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A174-1</t>
+          <t>A126</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>경상도_예천군</t>
+          <t>전라도_전주시</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.ycg.kr/open.content/ko/administrative/news/announcement/?p=2</t>
+          <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>예천군 건축위원회 심의위원 구성(추가위촉)에 따른 공고</t>
+          <t>「2025 전주막걸리축제 행사 대행 용역」제안서 평가결과 공고</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
@@ -2085,119 +2085,119 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A175</t>
+          <t>A127</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>경상도_울진군</t>
+          <t>전라도_정읍시</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+          <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>「울진군 오션리조트 및 골프장 개발사업 민간제안 공모」선정심의위원회 심의위원(후보자) 모집 공고</t>
+          <t>공법제안서 평가결과 공고(송령교 확장공사)</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A179-1</t>
+          <t>A127</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>경상도_칠곡군</t>
+          <t>전라도_정읍시</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+          <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>「북삼읍 농촌중심지활성화사업 지역역량강화(S/W) 용역」 제안서 평가위원(후보자) 모집 공고</t>
+          <t>2026년 주민참여예산제도 지역밀착형 주민제안 공모</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A180-1</t>
+          <t>A128</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>경상도_창원시</t>
+          <t>전라도_고창군</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=2</t>
+          <t>https://www.gochang.go.kr/board/list.gochang?boardId=BBS_0000180&amp;menuCd=DOM_000000102003007000&amp;contentsSid=2682&amp;startPage=1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>창원 진해명동 마리나항만 산업연구시설(기능시설) 설치？운영 사업자 선정 제안서 평가위원(후보자) 모집 공고</t>
+          <t>[41840]주민참여예산제도 지역밀착형 주민제안사업(도비) 공모첨부파일 있음</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A187-1</t>
+          <t>A128</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>경상도_김해시</t>
+          <t>전라도_고창군</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=1</t>
+          <t>https://www.gochang.go.kr/board/list.gochang?boardId=BBS_0000180&amp;menuCd=DOM_000000102003007000&amp;contentsSid=2682&amp;startPage=2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>「2025년 김해시 정책 제안 공모전」 1차 심사 결과 및 수상 후보작 공개검증 공고</t>
+          <t>[41838]고창군 목재문화체험장 조성사업 기본 및 실시설계용역 건축설계공모 제안서 제출 안내첨부파일 있음</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
@@ -2205,37 +2205,757 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-08-26 00:28:42</t>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>A133</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>전라도_임실군</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://eminwon.imsil.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2026년 주민참여예산제도 「지역밀착형 주민제안사업」공모</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A139</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>전라도_순천시</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025 추석맞이 문화콘텐츠 행사 대행 용역 제안서 평가결과 공고</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A139</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>전라도_순천시</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025년 글로벌 문화콘텐츠 산업전 in 순천 대행 용역 제안서 평가결과...</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A141</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>전라도_강진군</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>주작산자연휴양림 도로열선 제작·설치 공법선정위원회 평가위원(후보..새로운글</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A141</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>전라도_강진군</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>주작산자연휴양림 도로열선 제작·설치 특정공법 선정 기술제안서 제..새로운글</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A146</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>전라도_무안군</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.muan.go.kr/www/openmuan/new/announcement?page=1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>수리시설 개보수사업『복룡·병산저수지』신기술·특허공법(그라우팅) 선정을 위...</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>A158</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>경상도_경산시</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>경산시 농촌공간 재구조화 및 재생 기본계획 수립용역 제안서 평가결과 공고</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>A159</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>경상도_경주시</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>경주시 안전안심 농촌마을 서비스 보급・확산 사업 제안서 평가결과 공고</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>A159</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>경상도_경주시</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>경주 봉황대 전광판 3D 영상 제작 용역 제안서 평가위원(후보자) 모집 공고</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>A160</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>경상도_구미시</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025년「인동야간연장 마을돌봄터」수탁자선정 심의위원회 심사 결과 공고</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>A163-1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>경상도_상주시</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.sangju.go.kr/page/10297/10606.tc?mn=10297&amp;recordCountPerPage=100</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>「도로대장 전산데이터 구축사업」 제안서 평가위원(후보자) 공개모집 공고</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>A164</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>경상도_안동시</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.andong.go.kr/portal/saeol/gosi/list.do?mId=0401020100</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>제안서 예비평가위원 모집 공고[안동호 경관개선 사업-영락교 루미나리에 제작 및 설치]</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>A166</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>경상도_영천시</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.yc.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>「별의별미 우로지 명품먹거리 조성사업」경관디자인 및 조형물 제작・설치 제안서 평가위원(후보자) 공개모집 공고</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>A167-1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>경상도_포항시</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.pohang.go.kr/portal/saeol/gosi/list.do?mid=0202010000&amp;token=1702008153483</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>포항시 다함께돌봄센터 8호점 수탁기관 선정위원회 심의 결과 공고</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A167-1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>경상도_포항시</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.pohang.go.kr/portal/saeol/gosi/list.do?mid=0202010000&amp;token=1702008153483</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>「2025 포항수제맥주페스티벌 행사대행 용역」제안서 평가위원회 평가위원(후보자) 모집 공고</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A173</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>경상도_영양군</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.yyg.go.kr/www/organization/yyg_news/notification?page=1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>「영양군 우리동네살리기 도시재생사업 실행계획 수립 용역」제안서..새로운글</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>A175</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>경상도_울진군</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>「울진군 오션리조트 및 골프장 개발사업 민간제안 공모」선정심의위원회 심의위원(후보자) 모집 공고</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>A177</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>경상도_청도군</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025년 제3회 청도군 경관위원회 심의 결과 공고</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>A179-1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>경상도_칠곡군</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>「칠곡군 아동·청소년 시설 스마트화 사업」제안서 평가위원(후보자) 모집 공고</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>A179-1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>경상도_칠곡군</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>「북삼읍 농촌중심지활성화사업 지역역량강화(S/W) 용역」 제안서 평가위원(후보자) 모집 공고</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>A180-1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>경상도_창원시</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025년 창원시 고향사랑기부금 답례품 및 공급업체 심의 결과 공고</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>A187-1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>경상도_김해시</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>「2025년 김해시 정책 제안 공모전」 1차 심사 결과 및 수상 후보작 공개검증 공고</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A190-1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>경상도_양산시</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.yangsan.go.kr/portal/saeol/gosi/list.do?mid=0102010000</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>「낙동강 10월의 콘서트」행사대행 용역 제안서 평가위원(후보자) 모집 공고</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>A191</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>경상도_진주시</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>https://www.jinju.go.kr/00130/02730/05586.web?&amp;cpage=1</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>「진주시 공립 항공우주분야 전문과학관 전시설계 및 전시물 제작・설치」제안서 평가 결과 공개</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>A191</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>경상도_진주시</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.jinju.go.kr/00130/02730/05586.web?&amp;cpage=2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>제안서평가위원회 평가위원별 평가점수 공개(진주시 도로대장 전산화 용역)</t>
         </is>
       </c>
-      <c r="E60" s="2" t="n">
-        <v>45894</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2025-08-26 00:28:42</t>
+      <c r="E84" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-08-27 00:03:55</t>
         </is>
       </c>
     </row>
